--- a/data/raw/vehicle_cost_analysis.xlsx
+++ b/data/raw/vehicle_cost_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e1f62caf4ad83c4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasob\Downloads\EV_Diesel_Project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F9EC815E-486F-C044-A150-167DFF2BD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD9AEC7-9DF1-4BF2-9A87-F2E2EF9CE5B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9E1BAF-4652-402B-88FD-A8578FB13C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Propel 470MEV" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="All vehicle compare" sheetId="4" r:id="rId4"/>
     <sheet name="DASHBOARD" sheetId="8" r:id="rId5"/>
     <sheet name="Vehicle Details" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="291">
   <si>
     <t>Parameter</t>
   </si>
@@ -1204,42 +1203,6 @@
   </si>
   <si>
     <t>Rear Axle Ratio</t>
-  </si>
-  <si>
-    <t>tata2830.K</t>
-  </si>
-  <si>
-    <t>propel</t>
-  </si>
-  <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>cum</t>
-  </si>
-  <si>
-    <t>tata motrs modify</t>
-  </si>
-  <si>
-    <t>1 charge install</t>
-  </si>
-  <si>
-    <t>iorn (ton)</t>
-  </si>
-  <si>
-    <t>25-30</t>
-  </si>
-  <si>
-    <t>40-45</t>
-  </si>
-  <si>
-    <t>1 vehicle chrge with 2 output once then charge 1hr</t>
-  </si>
-  <si>
-    <t>2 output</t>
-  </si>
-  <si>
-    <t>Once time charge 2 vehicle then 1 vehicle full charge time 2, 2 hr</t>
   </si>
 </sst>
 </file>
@@ -8892,34 +8855,34 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.09765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="1"/>
-    <col min="12" max="12" width="11.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" style="1"/>
+    <col min="12" max="12" width="11.8984375" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" style="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.09765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.59765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="1" customWidth="1"/>
-    <col min="22" max="23" width="10.875" style="1"/>
+    <col min="22" max="23" width="10.8984375" style="1"/>
     <col min="24" max="24" width="15.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.875" style="1"/>
-    <col min="26" max="26" width="17.375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.875" style="1"/>
+    <col min="25" max="25" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="17.3984375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
@@ -10568,7 +10531,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="33.950000000000003" customHeight="1">
+    <row r="57" spans="1:20" ht="33.9" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -10584,22 +10547,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.95" customHeight="1">
+    <row r="58" spans="1:20" ht="15.9" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:20" ht="15.95" customHeight="1">
+    <row r="59" spans="1:20" ht="15.9" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:20" ht="15.95" customHeight="1">
+    <row r="60" spans="1:20" ht="15.9" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:20" ht="15.95" customHeight="1">
+    <row r="61" spans="1:20" ht="15.9" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -11153,38 +11116,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.09765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="1"/>
-    <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8984375" style="1"/>
+    <col min="12" max="12" width="14.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.09765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" style="1" customWidth="1"/>
     <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.09765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.59765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" style="1" customWidth="1"/>
     <col min="20" max="21" width="14.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="16" style="1" customWidth="1"/>
-    <col min="23" max="24" width="10.875" style="1"/>
-    <col min="25" max="25" width="16.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.875" style="1"/>
-    <col min="27" max="27" width="17.375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="1"/>
+    <col min="23" max="24" width="10.8984375" style="1"/>
+    <col min="25" max="25" width="16.59765625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.8984375" style="1"/>
+    <col min="27" max="27" width="17.3984375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -12761,7 +12724,7 @@
       <c r="J58" s="220"/>
       <c r="K58" s="220"/>
     </row>
-    <row r="59" spans="1:12" ht="33.950000000000003" customHeight="1">
+    <row r="59" spans="1:12" ht="33.9" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -12774,22 +12737,22 @@
       <c r="J59" s="220"/>
       <c r="K59" s="220"/>
     </row>
-    <row r="60" spans="1:12" ht="15.95" customHeight="1">
+    <row r="60" spans="1:12" ht="15.9" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="15.95" customHeight="1">
+    <row r="61" spans="1:12" ht="15.9" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="15.95" customHeight="1">
+    <row r="62" spans="1:12" ht="15.9" customHeight="1">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="15.95" customHeight="1">
+    <row r="63" spans="1:12" ht="15.9" customHeight="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -13108,27 +13071,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D3:Z84"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="A80" zoomScale="117" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="10.875" style="1"/>
+    <col min="1" max="3" width="10.8984375" style="1"/>
     <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" customWidth="1"/>
-    <col min="13" max="15" width="10.875" style="1"/>
-    <col min="16" max="16" width="14.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1"/>
+    <col min="13" max="15" width="10.8984375" style="1"/>
+    <col min="16" max="16" width="14.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8984375" style="1"/>
     <col min="18" max="18" width="14.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.875" style="1"/>
+    <col min="19" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:26">
@@ -14214,7 +14177,7 @@
       <c r="J56" s="219"/>
       <c r="K56" s="219"/>
     </row>
-    <row r="57" spans="4:12" ht="32.1">
+    <row r="57" spans="4:12" ht="28.8">
       <c r="D57" s="43" t="s">
         <v>23</v>
       </c>
@@ -14239,7 +14202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="21.95" customHeight="1">
+    <row r="58" spans="4:12" ht="21.9" customHeight="1">
       <c r="D58" s="45">
         <v>1</v>
       </c>
@@ -14288,7 +14251,7 @@
       <c r="J59" s="220"/>
       <c r="K59" s="220"/>
     </row>
-    <row r="60" spans="4:12" ht="18.95" customHeight="1">
+    <row r="60" spans="4:12" ht="18.899999999999999" customHeight="1">
       <c r="D60" s="45">
         <v>3</v>
       </c>
@@ -14601,28 +14564,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.875" style="1"/>
-    <col min="14" max="14" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.8984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.8984375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.8984375" style="1"/>
+    <col min="14" max="14" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="1"/>
+    <col min="16" max="16" width="14.3984375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
@@ -14689,7 +14652,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18.95" customHeight="1">
+    <row r="6" spans="1:14" ht="18.899999999999999" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -14711,7 +14674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.95" customHeight="1">
+    <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -15172,7 +15135,7 @@
         <v>8676.4090909090919</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001">
+    <row r="22" spans="1:8" ht="19.8">
       <c r="B22" s="138" t="s">
         <v>249</v>
       </c>
@@ -15433,24 +15396,24 @@
       <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.8984375" style="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="1"/>
+    <col min="16" max="16" width="11.59765625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -15469,7 +15432,7 @@
       <c r="N1" s="161"/>
       <c r="O1" s="161"/>
     </row>
-    <row r="2" spans="2:16" ht="26.1">
+    <row r="2" spans="2:16" ht="25.8">
       <c r="B2" s="239" t="s">
         <v>250</v>
       </c>
@@ -16129,7 +16092,7 @@
       <c r="F27" s="163"/>
       <c r="G27" s="163"/>
     </row>
-    <row r="36" spans="5:11" ht="26.1">
+    <row r="36" spans="5:11" ht="25.8">
       <c r="F36" s="239" t="s">
         <v>253</v>
       </c>
@@ -16139,7 +16102,7 @@
       <c r="J36" s="239"/>
       <c r="K36" s="239"/>
     </row>
-    <row r="38" spans="5:11" ht="51">
+    <row r="38" spans="5:11" ht="46.8">
       <c r="E38" s="165" t="str">
         <f>OLECTRA!O5</f>
         <v>Year</v>
@@ -16437,17 +16400,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C5:G42"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="41.625" customWidth="1"/>
+    <col min="7" max="7" width="41.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:7">
@@ -16673,123 +16636,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D5:N16"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="136" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
-  <sheetData>
-    <row r="5" spans="4:14">
-      <c r="E5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14">
-      <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14">
-      <c r="F7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14">
-      <c r="D8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G8">
-        <f>G16*18</f>
-        <v>35.284090909090907</v>
-      </c>
-      <c r="H8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="N9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="4:14">
-      <c r="M10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
-      <c r="N11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
-      <c r="E12" s="98">
-        <f>25/16</f>
-        <v>1.5625</v>
-      </c>
-      <c r="F12" s="98">
-        <f>40/F6</f>
-        <v>1.8181818181818181</v>
-      </c>
-    </row>
-    <row r="15" spans="4:14">
-      <c r="F15" s="98">
-        <f>30/16</f>
-        <v>1.875</v>
-      </c>
-      <c r="G15">
-        <f>45/22</f>
-        <v>2.0454545454545454</v>
-      </c>
-    </row>
-    <row r="16" spans="4:14">
-      <c r="G16">
-        <f>(G15+F15)/2</f>
-        <v>1.9602272727272727</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>